--- a/DaZhongTransitionLiquidation/Template/AssetsRetiremen.xlsx
+++ b/DaZhongTransitionLiquidation/Template/AssetsRetiremen.xlsx
@@ -88,100 +88,76 @@
     <t>报废损益额</t>
   </si>
   <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].BOOK_TYPE_CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].PERIOD_CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].TAG_NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].DESCRIPTION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].QUANTITY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].ASSET_CATEGORY_MAJOR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].ASSET_CATEGORY_MINOR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].SALVAGE_TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].SALVAGE_PERCENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].SALVAGE_VALUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].METHOD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].LIFE_MONTHS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].RETIRE_QUANTITY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].RETIRE_PL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].CREATE_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].CREATE_USER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].ASSET_CREATION_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].ASSET_COST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].RETIRE_COST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].RETIRE_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].RETIRE_ACCT_DEPRECIATION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].LAST_UPDATE_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].CHANGE_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=[Business_AssetsRetirement_Swap].CHANGE_USER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>&amp;=[AssetsRetirement_Swap].BOOK_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].PERIOD_CODE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].TAG_NUMBER</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].DESCRIPTION</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].QUANTITY</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].ASSET_CATEGORY_MAJOR</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].ASSET_CATEGORY_MINOR</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].ASSET_CREATION_DATE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].ASSET_COST</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].SALVAGE_TYPE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].SALVAGE_PERCENT</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].SALVAGE_VALUE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].METHOD</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].LIFE_MONTHS</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].RETIRE_QUANTITY</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].RETIRE_COST</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].RETIRE_DATE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].RETIRE_ACCT_DEPRECIATION</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].RETIRE_PL</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].LAST_UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].CREATE_DATE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].CHANGE_DATE</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].CREATE_USER</t>
+  </si>
+  <si>
+    <t>&amp;=[AssetsRetirement_Swap].CHANGE_USER</t>
   </si>
 </sst>
 </file>
@@ -701,52 +677,52 @@
         <v>30</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>47</v>
